--- a/Automatization/gestion_de_tiempo.xlsx
+++ b/Automatization/gestion_de_tiempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julio/Desktop/UVG/Semestre_2/POO/Proyecto/Automatization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5D940-FA4E-E146-A5CB-82F48307CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE549A9A-2A73-9E46-B932-CAC1C87C235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Hora de inicio</t>
   </si>
@@ -31,13 +31,19 @@
     <t>Hora de finalización</t>
   </si>
   <si>
+    <t>Tiempo pausado</t>
+  </si>
+  <si>
     <t>08/07/2024, 15:37:39</t>
   </si>
   <si>
-    <t>08/07/2024, 15:37:42</t>
-  </si>
-  <si>
-    <t>00:03:09</t>
+    <t>10:09:01</t>
+  </si>
+  <si>
+    <t>09/07/2024, 1:28:38</t>
+  </si>
+  <si>
+    <t>03:15:42</t>
   </si>
 </sst>
 </file>
@@ -56,6 +62,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,19 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,16 +425,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
